--- a/nr-add-numero-am/ig/StructureDefinition-fr-core-patient-death-place.xlsx
+++ b/nr-add-numero-am/ig/StructureDefinition-fr-core-patient-death-place.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:29:04+00:00</t>
+    <t>2026-01-12T10:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -339,7 +339,11 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Value of extension</t>
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>Lieu de décès du patient | Place where the patient is dead</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -688,7 +692,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1271,13 +1275,13 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1340,7 +1344,7 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>103</v>
